--- a/GBDS SEPTEMBER FILES 2025/DSSR GBDS MONTH OF SEPTEMBER.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/DSSR GBDS MONTH OF SEPTEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B6092D-C902-4DED-85FA-90E5F3696374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A08540-1761-4FFB-9E90-BE117A554127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3790,7 +3790,7 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
